--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HaomingText" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="3467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3975" uniqueCount="3509">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -22535,6 +22535,130 @@
       </rPr>
       <t xml:space="preserve">续时间</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">akujo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akujo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">悪女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魅魔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akujoIntroDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use your wiles to manipulate the crew into protecting you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クルーを誑かして最後まで生き残ろう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吸取其他玩家的精气活到最后</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akujoShortDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akujoFullDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Neutral role with the ability to select multiple partners to act as their Lover.
+They can assign one player as their True Love, and multiple as Backups.
+If the Akujo dies, their True Love dies with them, and vice versa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・他の人に本命(1人)とキープ(複数人)を付与できる
+・本命に選ばれた人は悪女が死んだ場合、同時に死んでしまう
+・キープに選ばれた人は遊ばれているだけです
+　恋人がいるように見えて実は独り身です
+・尚、選ばれた側は自分が本命なのかキープなのか分からない
+・制限時間内に本命とキープを選ばなかったら、悪女は孤独死してしまう
+（会議中も時間は進むのでご注意ください）
+・悪女は本命とキープに選んだプレイヤー全員の役職がわかる
+・勝利条件はラバーズと一緒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akujoTimeLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パートナー選びの時間制限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魅魔吸取精气的时间限制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akujoKnowsRoles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knows Partners' Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パートナーのロールが見える</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魅魔知道伴侣的职业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akujoNumKeeps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Backups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キープの最大人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魅魔最大可魅惑人数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akujoSheriffKillsHonmei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheriff Kills True Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akujoHonmei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本命</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真爱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akujoKeep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キープ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魅惑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akujoKeepsLeft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backups Left: {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">残り {0}人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">剩余魅惑数 {0}</t>
   </si>
   <si>
     <t xml:space="preserve">jesterFullDesc</t>
@@ -36525,6 +36649,18 @@
   </si>
   <si>
     <t xml:space="preserve">诱惑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AkujoHonmeiText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本命にする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AkujoKeepText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キープにする</t>
   </si>
   <si>
     <t xml:space="preserve">colorSalmon</t>
@@ -37229,8 +37365,8 @@
   </sheetPr>
   <dimension ref="A1:Q209"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M204" activeCellId="0" sqref="M204"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M204" activeCellId="1" sqref="A40:O41 M204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39994,10 +40130,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q876"/>
+  <dimension ref="A1:Q890"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A756" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A771" activeCellId="0" sqref="A771"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A864" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A878" activeCellId="1" sqref="A40:O41 A878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.86328125" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48727,6 +48863,154 @@
       </c>
       <c r="O876" s="24" t="s">
         <v>2901</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A878" s="0" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B878" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="M878" s="0" t="s">
+        <v>2904</v>
+      </c>
+      <c r="O878" s="13" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A879" s="0" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B879" s="0" t="s">
+        <v>2907</v>
+      </c>
+      <c r="M879" s="0" t="s">
+        <v>2908</v>
+      </c>
+      <c r="O879" s="13" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A880" s="0" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B880" s="0" t="s">
+        <v>2907</v>
+      </c>
+      <c r="M880" s="0" t="s">
+        <v>2908</v>
+      </c>
+      <c r="O880" s="13" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A881" s="0" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B881" s="13" t="s">
+        <v>2912</v>
+      </c>
+      <c r="M881" s="13" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A883" s="0" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B883" s="0" t="s">
+        <v>2915</v>
+      </c>
+      <c r="M883" s="13" t="s">
+        <v>2916</v>
+      </c>
+      <c r="O883" s="13" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A884" s="0" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B884" s="0" t="s">
+        <v>2919</v>
+      </c>
+      <c r="M884" s="13" t="s">
+        <v>2920</v>
+      </c>
+      <c r="O884" s="13" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A885" s="0" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B885" s="0" t="s">
+        <v>2923</v>
+      </c>
+      <c r="M885" s="13" t="s">
+        <v>2924</v>
+      </c>
+      <c r="O885" s="13" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A886" s="0" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B886" s="0" t="s">
+        <v>2927</v>
+      </c>
+      <c r="M886" s="13"/>
+    </row>
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A888" s="0" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B888" s="0" t="s">
+        <v>2929</v>
+      </c>
+      <c r="M888" s="0" t="s">
+        <v>2930</v>
+      </c>
+      <c r="O888" s="13" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A889" s="0" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B889" s="0" t="s">
+        <v>2933</v>
+      </c>
+      <c r="M889" s="0" t="s">
+        <v>2934</v>
+      </c>
+      <c r="O889" s="13" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A890" s="0" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B890" s="0" t="s">
+        <v>2937</v>
+      </c>
+      <c r="M890" s="0" t="s">
+        <v>2938</v>
+      </c>
+      <c r="O890" s="13" t="s">
+        <v>2939</v>
       </c>
     </row>
   </sheetData>
@@ -48750,7 +49034,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N57" activeCellId="0" sqref="N57"/>
+      <selection pane="topLeft" activeCell="N57" activeCellId="1" sqref="A40:O41 N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.86328125" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48813,618 +49097,618 @@
     </row>
     <row r="2" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2902</v>
+        <v>2940</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>2903</v>
+        <v>2941</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>2904</v>
+        <v>2942</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>2905</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2906</v>
+        <v>2944</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>2907</v>
+        <v>2945</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>2908</v>
+        <v>2946</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>2909</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="105.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>2910</v>
+        <v>2948</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>2911</v>
+        <v>2949</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>2912</v>
+        <v>2950</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>2913</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="70.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>2914</v>
+        <v>2952</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2915</v>
+        <v>2953</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>2916</v>
+        <v>2954</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>2917</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>2918</v>
+        <v>2956</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2919</v>
+        <v>2957</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>2920</v>
+        <v>2958</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>2921</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="105.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>2922</v>
+        <v>2960</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2923</v>
+        <v>2961</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>2924</v>
+        <v>2962</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>2925</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="176.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>2926</v>
+        <v>2964</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2927</v>
+        <v>2965</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>2928</v>
+        <v>2966</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>2929</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="158.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>2930</v>
+        <v>2968</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2931</v>
+        <v>2969</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>2932</v>
+        <v>2970</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>2933</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>2934</v>
+        <v>2972</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2935</v>
+        <v>2973</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>2936</v>
+        <v>2974</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>2937</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>2938</v>
+        <v>2976</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>2939</v>
+        <v>2977</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>2940</v>
+        <v>2978</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>2941</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="123.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>2942</v>
+        <v>2980</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>2943</v>
+        <v>2981</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>2944</v>
+        <v>2982</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>2945</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="387.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>2946</v>
+        <v>2984</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>2947</v>
+        <v>2985</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>2948</v>
+        <v>2986</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>2949</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="158.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>2950</v>
+        <v>2988</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>2951</v>
+        <v>2989</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>2952</v>
+        <v>2990</v>
       </c>
       <c r="O14" s="25" t="s">
-        <v>2953</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>2954</v>
+        <v>2992</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>2955</v>
+        <v>2993</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>2956</v>
+        <v>2994</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>2957</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="123.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>2958</v>
+        <v>2996</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>2959</v>
+        <v>2997</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>2960</v>
+        <v>2998</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>2961</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="123.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>2962</v>
+        <v>3000</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>2963</v>
+        <v>3001</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>2964</v>
+        <v>3002</v>
       </c>
       <c r="O17" s="25" t="s">
-        <v>2965</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="211.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>2966</v>
+        <v>3004</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>2967</v>
+        <v>3005</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>2968</v>
+        <v>3006</v>
       </c>
       <c r="O18" s="25" t="s">
-        <v>2969</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="123.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>2970</v>
+        <v>3008</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>2971</v>
+        <v>3009</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>2972</v>
+        <v>3010</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>2973</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="193.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>2974</v>
+        <v>3012</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>2975</v>
+        <v>3013</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>2976</v>
+        <v>3014</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>2977</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="193.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>2978</v>
+        <v>3016</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>2979</v>
+        <v>3017</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>2980</v>
+        <v>3018</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>2981</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="70.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>2982</v>
+        <v>3020</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>2983</v>
+        <v>3021</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>2984</v>
+        <v>3022</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>2985</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="105.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>2986</v>
+        <v>3024</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>2987</v>
+        <v>3025</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>2988</v>
+        <v>3026</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>2989</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="88.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>2990</v>
+        <v>3028</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>2991</v>
+        <v>3029</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>2992</v>
+        <v>3030</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>2993</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="158.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>2994</v>
+        <v>3032</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>2995</v>
+        <v>3033</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>2996</v>
+        <v>3034</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>2997</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="193.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>2998</v>
+        <v>3036</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>2999</v>
+        <v>3037</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>3000</v>
+        <v>3038</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>3001</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="88.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>3002</v>
+        <v>3040</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>3003</v>
+        <v>3041</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>3004</v>
+        <v>3042</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>3005</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="123.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>3006</v>
+        <v>3044</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>3007</v>
+        <v>3045</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>3008</v>
+        <v>3046</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>3009</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="246.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>3010</v>
+        <v>3048</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>3011</v>
+        <v>3049</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>3012</v>
+        <v>3050</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>3013</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="88.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>3014</v>
+        <v>3052</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>3015</v>
+        <v>3053</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>3016</v>
+        <v>3054</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>3017</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="176.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>3018</v>
+        <v>3056</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>3019</v>
+        <v>3057</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>3020</v>
+        <v>3058</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>3021</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="264" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>3022</v>
+        <v>3060</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>3023</v>
+        <v>3061</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>3024</v>
+        <v>3062</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>3025</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="105.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>3026</v>
+        <v>3064</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>3027</v>
+        <v>3065</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>3028</v>
+        <v>3066</v>
       </c>
       <c r="O33" s="25" t="s">
-        <v>3029</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="158.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>3030</v>
+        <v>3068</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>3031</v>
+        <v>3069</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>3032</v>
+        <v>3070</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>3033</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="158.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>3034</v>
+        <v>3072</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>3031</v>
+        <v>3069</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>3032</v>
+        <v>3070</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>3033</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="88.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>3035</v>
+        <v>3073</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>3036</v>
+        <v>3074</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>3037</v>
+        <v>3075</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>3038</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>3039</v>
+        <v>3077</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>3040</v>
+        <v>3078</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>3041</v>
+        <v>3079</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>3042</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>3043</v>
+        <v>3081</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>3044</v>
+        <v>3082</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>3045</v>
+        <v>3083</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>3046</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>3047</v>
+        <v>3085</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>3048</v>
+        <v>3086</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>3049</v>
+        <v>3087</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>3050</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="211.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>3051</v>
+        <v>3089</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>3052</v>
+        <v>3090</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>3053</v>
+        <v>3091</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>3054</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="105.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>3055</v>
+        <v>3093</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>3056</v>
+        <v>3094</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>3057</v>
+        <v>3095</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>3058</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="88.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>3059</v>
+        <v>3097</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>3060</v>
+        <v>3098</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>3061</v>
+        <v>3099</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>3062</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>3063</v>
+        <v>3101</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>3064</v>
+        <v>3102</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>3065</v>
+        <v>3103</v>
       </c>
       <c r="O43" s="25" t="s">
-        <v>3066</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="176.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>3067</v>
+        <v>3105</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>3068</v>
+        <v>3106</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>3069</v>
+        <v>3107</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>3070</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>3071</v>
+        <v>3109</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>3072</v>
+        <v>3110</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>3073</v>
+        <v>3111</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>3074</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49432,30 +49716,30 @@
     </row>
     <row r="47" customFormat="false" ht="70.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>3075</v>
+        <v>3113</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>2983</v>
+        <v>3021</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>3076</v>
+        <v>3114</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>2985</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="105.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>3077</v>
+        <v>3115</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>3078</v>
+        <v>3116</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>3079</v>
+        <v>3117</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>3080</v>
+        <v>3118</v>
       </c>
     </row>
   </sheetData>
@@ -49477,7 +49761,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="1" sqref="A40:O41 O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.86328125" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49540,478 +49824,478 @@
     </row>
     <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3081</v>
+        <v>3119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3082</v>
+        <v>3120</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>3083</v>
+        <v>3121</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>3084</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3085</v>
+        <v>3123</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>3086</v>
+        <v>3124</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>3087</v>
+        <v>3125</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>2909</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3088</v>
+        <v>3126</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3089</v>
+        <v>3127</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>3090</v>
+        <v>3128</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>3091</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3092</v>
+        <v>3130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3093</v>
+        <v>3131</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>3094</v>
+        <v>3132</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>3095</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3096</v>
+        <v>3134</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3097</v>
+        <v>3135</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>3098</v>
+        <v>3136</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3099</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>3100</v>
+        <v>3138</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>3101</v>
+        <v>3139</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>3102</v>
+        <v>3140</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>3103</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>3104</v>
+        <v>3142</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3105</v>
+        <v>3143</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>3106</v>
+        <v>3144</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>3107</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>3108</v>
+        <v>3146</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3109</v>
+        <v>3147</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>3110</v>
+        <v>3148</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>3111</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>3112</v>
+        <v>3150</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3113</v>
+        <v>3151</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>3114</v>
+        <v>3152</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>3115</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>3116</v>
+        <v>3154</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3117</v>
+        <v>3155</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>3118</v>
+        <v>3156</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>3119</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>3120</v>
+        <v>3158</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3121</v>
+        <v>3159</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>3122</v>
+        <v>3160</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>3123</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>3124</v>
+        <v>3162</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3125</v>
+        <v>3163</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>3126</v>
+        <v>3164</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>3127</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>3128</v>
+        <v>3166</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>3129</v>
+        <v>3167</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>3130</v>
+        <v>3168</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>3131</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>3132</v>
+        <v>3170</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3133</v>
+        <v>3171</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>3134</v>
+        <v>3172</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>3135</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>3136</v>
+        <v>3174</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3137</v>
+        <v>3175</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>3138</v>
+        <v>3176</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>3139</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>3140</v>
+        <v>3178</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3141</v>
+        <v>3179</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>3142</v>
+        <v>3180</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>3143</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>3144</v>
+        <v>3182</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3145</v>
+        <v>3183</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>3146</v>
+        <v>3184</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>3147</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>3148</v>
+        <v>3186</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3149</v>
+        <v>3187</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>3150</v>
+        <v>3188</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>3151</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>3152</v>
+        <v>3190</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3153</v>
+        <v>3191</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>3154</v>
+        <v>3192</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>3155</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>3156</v>
+        <v>3194</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3157</v>
+        <v>3195</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>3158</v>
+        <v>3196</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>3159</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>3160</v>
+        <v>3198</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3161</v>
+        <v>3199</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>3162</v>
+        <v>3200</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>3163</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>3164</v>
+        <v>3202</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2955</v>
+        <v>2993</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>3165</v>
+        <v>3203</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>3166</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>3167</v>
+        <v>3205</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3168</v>
+        <v>3206</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>3169</v>
+        <v>3207</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>3170</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>3171</v>
+        <v>3209</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3172</v>
+        <v>3210</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>3173</v>
+        <v>3211</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>3174</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>3175</v>
+        <v>3213</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3176</v>
+        <v>3214</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>3177</v>
+        <v>3215</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>3042</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>3178</v>
+        <v>3216</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>3179</v>
+        <v>3217</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>3180</v>
+        <v>3218</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>3181</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>3182</v>
+        <v>3220</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>3183</v>
+        <v>3221</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>3184</v>
+        <v>3222</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>3185</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>3186</v>
+        <v>3224</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3187</v>
+        <v>3225</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>3188</v>
+        <v>3226</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>3189</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>3190</v>
+        <v>3228</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3191</v>
+        <v>3229</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>3192</v>
+        <v>3230</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>3193</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>3194</v>
+        <v>3232</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>3195</v>
+        <v>3233</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>3196</v>
+        <v>3234</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>3197</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>3198</v>
+        <v>3236</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>3199</v>
+        <v>3237</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>3200</v>
+        <v>3238</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>3201</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>3202</v>
+        <v>3240</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>3203</v>
+        <v>3241</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>3204</v>
+        <v>3242</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>3205</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>3206</v>
+        <v>3244</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>3207</v>
+        <v>3245</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>3208</v>
+        <v>3246</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>3209</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>3210</v>
+        <v>3248</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>3211</v>
+        <v>3249</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>3212</v>
+        <v>3250</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>3213</v>
+        <v>3251</v>
       </c>
     </row>
   </sheetData>
@@ -50033,7 +50317,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
+      <selection pane="topLeft" activeCell="N20" activeCellId="1" sqref="A40:O41 N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.86328125" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50093,218 +50377,218 @@
     </row>
     <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3214</v>
+        <v>3252</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3215</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3216</v>
+        <v>3254</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3217</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3218</v>
+        <v>3256</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3219</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3220</v>
+        <v>3258</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3221</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3222</v>
+        <v>3260</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3223</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>3224</v>
+        <v>3262</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3225</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>3226</v>
+        <v>3264</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3227</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>3228</v>
+        <v>3266</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3229</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>3230</v>
+        <v>3268</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3231</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>3232</v>
+        <v>3270</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3233</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>3234</v>
+        <v>3272</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3235</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>3236</v>
+        <v>3274</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3237</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>3238</v>
+        <v>3276</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3239</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>3240</v>
+        <v>3278</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3241</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>3242</v>
+        <v>3280</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3243</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>3244</v>
+        <v>3282</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3245</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>3246</v>
+        <v>3284</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3247</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>3248</v>
+        <v>3286</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3249</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>3250</v>
+        <v>3288</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3251</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>3252</v>
+        <v>3290</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3253</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>3254</v>
+        <v>3292</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3255</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>3256</v>
+        <v>3294</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3257</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>3258</v>
+        <v>3296</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3259</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>3260</v>
+        <v>3298</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3261</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>3262</v>
+        <v>3300</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3263</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>3264</v>
+        <v>3302</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3265</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>3266</v>
+        <v>3304</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3267</v>
+        <v>3305</v>
       </c>
     </row>
   </sheetData>
@@ -50323,10 +50607,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40:O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.86328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50387,66 +50671,66 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3268</v>
+        <v>3306</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>3270</v>
+        <v>3308</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>3271</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3272</v>
+        <v>3310</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>3273</v>
+        <v>3311</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>3274</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3275</v>
+        <v>3313</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>3276</v>
+        <v>3314</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>3277</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3278</v>
+        <v>3316</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>3279</v>
+        <v>3317</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>3280</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3281</v>
+        <v>3319</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>2725</v>
@@ -50457,69 +50741,69 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>3282</v>
+        <v>3320</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>3283</v>
+        <v>3321</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>3284</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>3285</v>
+        <v>3323</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>3286</v>
+        <v>3324</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>3287</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>3288</v>
+        <v>3326</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>3289</v>
+        <v>3327</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>3290</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>3291</v>
+        <v>3329</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>3292</v>
+        <v>3330</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>3293</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>3294</v>
+        <v>3332</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>3295</v>
+        <v>3333</v>
       </c>
       <c r="O11" s="17" t="s">
         <v>2716</v>
@@ -50527,125 +50811,125 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>3296</v>
+        <v>3334</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>3297</v>
+        <v>3335</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>3298</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>3299</v>
+        <v>3337</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>3300</v>
+        <v>3338</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>3301</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>3302</v>
+        <v>3340</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>3303</v>
+        <v>3341</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>3304</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>3305</v>
+        <v>3343</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>3306</v>
+        <v>3344</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>3307</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>3308</v>
+        <v>3346</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>3306</v>
+        <v>3344</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>3309</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>3310</v>
+        <v>3348</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>3311</v>
+        <v>3349</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>3312</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>3313</v>
+        <v>3351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>3314</v>
+        <v>3352</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>3315</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>3316</v>
+        <v>3354</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>3317</v>
+        <v>3355</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>3318</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>3319</v>
+        <v>3357</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>3320</v>
+        <v>3358</v>
       </c>
       <c r="O20" s="17" t="s">
         <v>1607</v>
@@ -50653,259 +50937,259 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>3321</v>
+        <v>3359</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>3322</v>
+        <v>3360</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>3323</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>3324</v>
+        <v>3362</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>3325</v>
+        <v>3363</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>3326</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>3327</v>
+        <v>3365</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>1255</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>3328</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>3329</v>
+        <v>3367</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>3322</v>
+        <v>3360</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>3330</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>3331</v>
+        <v>3369</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>3332</v>
+        <v>3370</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>3333</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>3334</v>
+        <v>3372</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>3335</v>
+        <v>3373</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>3336</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>3337</v>
+        <v>3375</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>3338</v>
+        <v>3376</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>3339</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>3340</v>
+        <v>3378</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>3341</v>
+        <v>3379</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>3342</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>3343</v>
+        <v>3381</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>3344</v>
+        <v>3382</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>3345</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>3346</v>
+        <v>3384</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>3347</v>
+        <v>3385</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>3348</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>3349</v>
+        <v>3387</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>3350</v>
+        <v>3388</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>3351</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>3352</v>
+        <v>3390</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>3353</v>
+        <v>3391</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>3354</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>3355</v>
+        <v>3393</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3356</v>
+        <v>3394</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>3357</v>
+        <v>3395</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>3358</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>3359</v>
+        <v>3397</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3360</v>
+        <v>3398</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>3361</v>
+        <v>3399</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>3361</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>3362</v>
+        <v>3400</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3363</v>
+        <v>3401</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>3364</v>
+        <v>3402</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>3365</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>3366</v>
+        <v>3404</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3367</v>
+        <v>3405</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>3368</v>
+        <v>3406</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>3358</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>3369</v>
+        <v>3407</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3370</v>
+        <v>3408</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>3371</v>
+        <v>3409</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>3361</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>3372</v>
+        <v>3410</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3269</v>
+        <v>3307</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>3311</v>
+        <v>3349</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>3312</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>3373</v>
+        <v>3411</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>2250</v>
@@ -50914,7 +51198,35 @@
         <v>2251</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>3374</v>
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>2929</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>3414</v>
+      </c>
+      <c r="O40" s="0" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>2933</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>3416</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>2935</v>
       </c>
     </row>
   </sheetData>
@@ -50936,7 +51248,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="A40:O41 B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.86328125" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50997,240 +51309,240 @@
     </row>
     <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3375</v>
+        <v>3417</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3376</v>
+        <v>3418</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>3377</v>
+        <v>3419</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>3378</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3379</v>
+        <v>3421</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3380</v>
+        <v>3422</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>3381</v>
+        <v>3423</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>3382</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3383</v>
+        <v>3425</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3384</v>
+        <v>3426</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>3385</v>
+        <v>3427</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>3386</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3387</v>
+        <v>3429</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3388</v>
+        <v>3430</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>3389</v>
+        <v>3431</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>3390</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3391</v>
+        <v>3433</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3392</v>
+        <v>3434</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>3393</v>
+        <v>3435</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>3394</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>3395</v>
+        <v>3437</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3396</v>
+        <v>3438</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>3397</v>
+        <v>3439</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>3398</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>3399</v>
+        <v>3441</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3400</v>
+        <v>3442</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>3401</v>
+        <v>3443</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>3402</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>3403</v>
+        <v>3445</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3404</v>
+        <v>3446</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>3405</v>
+        <v>3447</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>3406</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>3407</v>
+        <v>3449</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3408</v>
+        <v>3450</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>3409</v>
+        <v>3451</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>3410</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>3411</v>
+        <v>3453</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3412</v>
+        <v>3454</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>3413</v>
+        <v>3455</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>3414</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>3415</v>
+        <v>3457</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3416</v>
+        <v>3458</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>3417</v>
+        <v>3459</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>3418</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>3419</v>
+        <v>3461</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3420</v>
+        <v>3462</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>3421</v>
+        <v>3463</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>3422</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>3423</v>
+        <v>3465</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3424</v>
+        <v>3466</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>3425</v>
+        <v>3467</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>3426</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>3427</v>
+        <v>3469</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3428</v>
+        <v>3470</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>3429</v>
+        <v>3471</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>3430</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>3431</v>
+        <v>3473</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3432</v>
+        <v>3474</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>3433</v>
+        <v>3475</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>3434</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>3435</v>
+        <v>3477</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3436</v>
+        <v>3478</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>3437</v>
+        <v>3479</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>3438</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>3439</v>
+        <v>3481</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3440</v>
+        <v>3482</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>3441</v>
+        <v>3483</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>3442</v>
+        <v>3484</v>
       </c>
     </row>
   </sheetData>
@@ -51252,7 +51564,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A40:O41 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.86328125" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51314,86 +51626,86 @@
     </row>
     <row r="2" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3443</v>
+        <v>3485</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3444</v>
+        <v>3486</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>3445</v>
+        <v>3487</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>3446</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3447</v>
+        <v>3489</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3448</v>
+        <v>3490</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>3449</v>
+        <v>3491</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>3450</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3451</v>
+        <v>3493</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3452</v>
+        <v>3494</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>3453</v>
+        <v>3495</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>3454</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3455</v>
+        <v>3497</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3456</v>
+        <v>3498</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>3457</v>
+        <v>3499</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>3458</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3459</v>
+        <v>3501</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3460</v>
+        <v>3502</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>3461</v>
+        <v>3503</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>3462</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>3463</v>
+        <v>3505</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3464</v>
+        <v>3506</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>3465</v>
+        <v>3507</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>3466</v>
+        <v>3508</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HaomingText" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3975" uniqueCount="3509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3983" uniqueCount="3517">
   <si>
     <t xml:space="preserve">English</t>
   </si>
@@ -22659,6 +22659,30 @@
   </si>
   <si>
     <t xml:space="preserve">剩余魅惑数 {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akujoWin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akujo Wins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">悪女勝利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">坏女人！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akujoWinExtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akujo {0} Win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">悪女{0}勝利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魅魔{0}胜利</t>
   </si>
   <si>
     <t xml:space="preserve">jesterFullDesc</t>
@@ -37366,7 +37390,7 @@
   <dimension ref="A1:Q209"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M204" activeCellId="1" sqref="A40:O41 M204"/>
+      <selection pane="topLeft" activeCell="M204" activeCellId="0" sqref="M204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40130,10 +40154,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q890"/>
+  <dimension ref="A1:Q892"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A864" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A878" activeCellId="1" sqref="A40:O41 A878"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A873" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J881" activeCellId="0" sqref="J881"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.86328125" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49011,6 +49035,34 @@
       </c>
       <c r="O890" s="13" t="s">
         <v>2939</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A891" s="0" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B891" s="0" t="s">
+        <v>2941</v>
+      </c>
+      <c r="M891" s="0" t="s">
+        <v>2942</v>
+      </c>
+      <c r="O891" s="13" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A892" s="0" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B892" s="0" t="s">
+        <v>2945</v>
+      </c>
+      <c r="M892" s="0" t="s">
+        <v>2946</v>
+      </c>
+      <c r="O892" s="13" t="s">
+        <v>2947</v>
       </c>
     </row>
   </sheetData>
@@ -49034,7 +49086,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N57" activeCellId="1" sqref="A40:O41 N57"/>
+      <selection pane="topLeft" activeCell="N57" activeCellId="0" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.86328125" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49097,618 +49149,618 @@
     </row>
     <row r="2" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2940</v>
+        <v>2948</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>2941</v>
+        <v>2949</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>2942</v>
+        <v>2950</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>2943</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2944</v>
+        <v>2952</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>2945</v>
+        <v>2953</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>2946</v>
+        <v>2954</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>2947</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="105.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>2948</v>
+        <v>2956</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>2949</v>
+        <v>2957</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>2950</v>
+        <v>2958</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>2951</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="70.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>2952</v>
+        <v>2960</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>2953</v>
+        <v>2961</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>2954</v>
+        <v>2962</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>2955</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>2956</v>
+        <v>2964</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>2957</v>
+        <v>2965</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>2958</v>
+        <v>2966</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>2959</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="105.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>2960</v>
+        <v>2968</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>2961</v>
+        <v>2969</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>2962</v>
+        <v>2970</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>2963</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="176.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>2964</v>
+        <v>2972</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>2965</v>
+        <v>2973</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>2966</v>
+        <v>2974</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>2967</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="158.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>2968</v>
+        <v>2976</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>2969</v>
+        <v>2977</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>2970</v>
+        <v>2978</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>2971</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>2972</v>
+        <v>2980</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>2973</v>
+        <v>2981</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>2974</v>
+        <v>2982</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>2975</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>2976</v>
+        <v>2984</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>2977</v>
+        <v>2985</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>2978</v>
+        <v>2986</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>2979</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="123.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>2980</v>
+        <v>2988</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>2981</v>
+        <v>2989</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>2982</v>
+        <v>2990</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>2983</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="387.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>2984</v>
+        <v>2992</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>2985</v>
+        <v>2993</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>2986</v>
+        <v>2994</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>2987</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="158.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>2988</v>
+        <v>2996</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>2989</v>
+        <v>2997</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>2990</v>
+        <v>2998</v>
       </c>
       <c r="O14" s="25" t="s">
-        <v>2991</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>2992</v>
+        <v>3000</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>2993</v>
+        <v>3001</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>2994</v>
+        <v>3002</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>2995</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="123.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>2996</v>
+        <v>3004</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>2997</v>
+        <v>3005</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>2998</v>
+        <v>3006</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>2999</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="123.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>3000</v>
+        <v>3008</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>3001</v>
+        <v>3009</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>3002</v>
+        <v>3010</v>
       </c>
       <c r="O17" s="25" t="s">
-        <v>3003</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="211.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>3004</v>
+        <v>3012</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>3005</v>
+        <v>3013</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>3006</v>
+        <v>3014</v>
       </c>
       <c r="O18" s="25" t="s">
-        <v>3007</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="123.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>3008</v>
+        <v>3016</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>3009</v>
+        <v>3017</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>3010</v>
+        <v>3018</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>3011</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="193.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>3012</v>
+        <v>3020</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>3013</v>
+        <v>3021</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>3014</v>
+        <v>3022</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>3015</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="193.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>3016</v>
+        <v>3024</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>3017</v>
+        <v>3025</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>3018</v>
+        <v>3026</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>3019</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="70.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>3020</v>
+        <v>3028</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>3021</v>
+        <v>3029</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>3022</v>
+        <v>3030</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>3023</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="105.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>3024</v>
+        <v>3032</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>3025</v>
+        <v>3033</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>3026</v>
+        <v>3034</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>3027</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="88.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>3028</v>
+        <v>3036</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>3029</v>
+        <v>3037</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>3030</v>
+        <v>3038</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>3031</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="158.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>3032</v>
+        <v>3040</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>3033</v>
+        <v>3041</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>3034</v>
+        <v>3042</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>3035</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="193.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>3036</v>
+        <v>3044</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>3037</v>
+        <v>3045</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>3038</v>
+        <v>3046</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>3039</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="88.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>3040</v>
+        <v>3048</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>3041</v>
+        <v>3049</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>3042</v>
+        <v>3050</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>3043</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="123.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>3044</v>
+        <v>3052</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>3045</v>
+        <v>3053</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>3046</v>
+        <v>3054</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>3047</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="246.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>3048</v>
+        <v>3056</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>3049</v>
+        <v>3057</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>3050</v>
+        <v>3058</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>3051</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="88.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>3052</v>
+        <v>3060</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>3053</v>
+        <v>3061</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>3054</v>
+        <v>3062</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>3055</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="176.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>3056</v>
+        <v>3064</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>3057</v>
+        <v>3065</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>3058</v>
+        <v>3066</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>3059</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="264" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>3060</v>
+        <v>3068</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>3061</v>
+        <v>3069</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>3062</v>
+        <v>3070</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>3063</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="105.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>3064</v>
+        <v>3072</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>3065</v>
+        <v>3073</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>3066</v>
+        <v>3074</v>
       </c>
       <c r="O33" s="25" t="s">
-        <v>3067</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="158.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>3068</v>
+        <v>3076</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>3069</v>
+        <v>3077</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>3070</v>
+        <v>3078</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>3071</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="158.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>3072</v>
+        <v>3080</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>3069</v>
+        <v>3077</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>3070</v>
+        <v>3078</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>3071</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="88.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>3073</v>
+        <v>3081</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>3074</v>
+        <v>3082</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>3075</v>
+        <v>3083</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>3076</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>3077</v>
+        <v>3085</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>3078</v>
+        <v>3086</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>3079</v>
+        <v>3087</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>3080</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>3081</v>
+        <v>3089</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>3082</v>
+        <v>3090</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>3083</v>
+        <v>3091</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>3084</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>3085</v>
+        <v>3093</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>3086</v>
+        <v>3094</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>3087</v>
+        <v>3095</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>3088</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="211.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>3089</v>
+        <v>3097</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>3090</v>
+        <v>3098</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>3091</v>
+        <v>3099</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>3092</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="105.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>3093</v>
+        <v>3101</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>3094</v>
+        <v>3102</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>3095</v>
+        <v>3103</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>3096</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="88.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>3097</v>
+        <v>3105</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>3098</v>
+        <v>3106</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>3099</v>
+        <v>3107</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>3100</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="84" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>3101</v>
+        <v>3109</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>3102</v>
+        <v>3110</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>3103</v>
+        <v>3111</v>
       </c>
       <c r="O43" s="25" t="s">
-        <v>3104</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="176.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>3105</v>
+        <v>3113</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>3106</v>
+        <v>3114</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>3107</v>
+        <v>3115</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>3108</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>3109</v>
+        <v>3117</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>3110</v>
+        <v>3118</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>3111</v>
+        <v>3119</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>3112</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49716,30 +49768,30 @@
     </row>
     <row r="47" customFormat="false" ht="70.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>3113</v>
+        <v>3121</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>3021</v>
+        <v>3029</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>3114</v>
+        <v>3122</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>3023</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="105.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>3115</v>
+        <v>3123</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>3116</v>
+        <v>3124</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>3117</v>
+        <v>3125</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>3118</v>
+        <v>3126</v>
       </c>
     </row>
   </sheetData>
@@ -49761,7 +49813,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="1" sqref="A40:O41 O1"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.86328125" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -49824,478 +49876,478 @@
     </row>
     <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3119</v>
+        <v>3127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3120</v>
+        <v>3128</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>3121</v>
+        <v>3129</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>3122</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3123</v>
+        <v>3131</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>3124</v>
+        <v>3132</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>3125</v>
+        <v>3133</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>2947</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3126</v>
+        <v>3134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3127</v>
+        <v>3135</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>3128</v>
+        <v>3136</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>3129</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3130</v>
+        <v>3138</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3131</v>
+        <v>3139</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>3132</v>
+        <v>3140</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>3133</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3134</v>
+        <v>3142</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3135</v>
+        <v>3143</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>3136</v>
+        <v>3144</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3137</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="71.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>3138</v>
+        <v>3146</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>3139</v>
+        <v>3147</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>3140</v>
+        <v>3148</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>3141</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>3142</v>
+        <v>3150</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3143</v>
+        <v>3151</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>3144</v>
+        <v>3152</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>3145</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>3146</v>
+        <v>3154</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3147</v>
+        <v>3155</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>3148</v>
+        <v>3156</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>3149</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>3150</v>
+        <v>3158</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3151</v>
+        <v>3159</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>3152</v>
+        <v>3160</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>3153</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>3154</v>
+        <v>3162</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3155</v>
+        <v>3163</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>3156</v>
+        <v>3164</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>3157</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>3158</v>
+        <v>3166</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3159</v>
+        <v>3167</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>3160</v>
+        <v>3168</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>3161</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>3162</v>
+        <v>3170</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3163</v>
+        <v>3171</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>3164</v>
+        <v>3172</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>3165</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>3166</v>
+        <v>3174</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>3167</v>
+        <v>3175</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>3168</v>
+        <v>3176</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>3169</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>3170</v>
+        <v>3178</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3171</v>
+        <v>3179</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>3172</v>
+        <v>3180</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>3173</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>3174</v>
+        <v>3182</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3175</v>
+        <v>3183</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>3176</v>
+        <v>3184</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>3177</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>3178</v>
+        <v>3186</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3179</v>
+        <v>3187</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>3180</v>
+        <v>3188</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>3181</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>3182</v>
+        <v>3190</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3183</v>
+        <v>3191</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>3184</v>
+        <v>3192</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>3185</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>3186</v>
+        <v>3194</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3187</v>
+        <v>3195</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>3188</v>
+        <v>3196</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>3189</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>3190</v>
+        <v>3198</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3191</v>
+        <v>3199</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>3192</v>
+        <v>3200</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>3193</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>3194</v>
+        <v>3202</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3195</v>
+        <v>3203</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>3196</v>
+        <v>3204</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>3197</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>3198</v>
+        <v>3206</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3199</v>
+        <v>3207</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>3200</v>
+        <v>3208</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>3201</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>3202</v>
+        <v>3210</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2993</v>
+        <v>3001</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>3203</v>
+        <v>3211</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>3204</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>3205</v>
+        <v>3213</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3206</v>
+        <v>3214</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>3207</v>
+        <v>3215</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>3208</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>3209</v>
+        <v>3217</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3210</v>
+        <v>3218</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>3211</v>
+        <v>3219</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>3212</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>3213</v>
+        <v>3221</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3214</v>
+        <v>3222</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>3215</v>
+        <v>3223</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>3080</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>3216</v>
+        <v>3224</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>3217</v>
+        <v>3225</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>3218</v>
+        <v>3226</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>3219</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>3220</v>
+        <v>3228</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>3221</v>
+        <v>3229</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>3222</v>
+        <v>3230</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>3223</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>3224</v>
+        <v>3232</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3225</v>
+        <v>3233</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>3226</v>
+        <v>3234</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>3227</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>3228</v>
+        <v>3236</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3229</v>
+        <v>3237</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>3230</v>
+        <v>3238</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>3231</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="57" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>3232</v>
+        <v>3240</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>3233</v>
+        <v>3241</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>3234</v>
+        <v>3242</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>3235</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="52.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>3236</v>
+        <v>3244</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>3237</v>
+        <v>3245</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>3238</v>
+        <v>3246</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>3239</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>3240</v>
+        <v>3248</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>3241</v>
+        <v>3249</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>3242</v>
+        <v>3250</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>3243</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>3244</v>
+        <v>3252</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>3245</v>
+        <v>3253</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>3246</v>
+        <v>3254</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>3247</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>3248</v>
+        <v>3256</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>3249</v>
+        <v>3257</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>3250</v>
+        <v>3258</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>3251</v>
+        <v>3259</v>
       </c>
     </row>
   </sheetData>
@@ -50317,7 +50369,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N20" activeCellId="1" sqref="A40:O41 N20"/>
+      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.86328125" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50377,218 +50429,218 @@
     </row>
     <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3252</v>
+        <v>3260</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3253</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3254</v>
+        <v>3262</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3255</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3256</v>
+        <v>3264</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3257</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3258</v>
+        <v>3266</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3259</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3260</v>
+        <v>3268</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3261</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>3262</v>
+        <v>3270</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3263</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>3264</v>
+        <v>3272</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3265</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>3266</v>
+        <v>3274</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3267</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>3268</v>
+        <v>3276</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3269</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>3270</v>
+        <v>3278</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3271</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>3272</v>
+        <v>3280</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3273</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>3274</v>
+        <v>3282</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3275</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>3276</v>
+        <v>3284</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3277</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>3278</v>
+        <v>3286</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3279</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>3280</v>
+        <v>3288</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3281</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>3282</v>
+        <v>3290</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3283</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>3284</v>
+        <v>3292</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3285</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>3286</v>
+        <v>3294</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3287</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>3288</v>
+        <v>3296</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3289</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>3290</v>
+        <v>3298</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3291</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>3292</v>
+        <v>3300</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3293</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>3294</v>
+        <v>3302</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3295</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>3296</v>
+        <v>3304</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3297</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>3298</v>
+        <v>3306</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3299</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>3300</v>
+        <v>3308</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3301</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>3302</v>
+        <v>3310</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3303</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>3304</v>
+        <v>3312</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3305</v>
+        <v>3313</v>
       </c>
     </row>
   </sheetData>
@@ -50609,8 +50661,8 @@
   </sheetPr>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40:O41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.86328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50671,66 +50723,66 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3306</v>
+        <v>3314</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>3308</v>
+        <v>3316</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>3309</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3310</v>
+        <v>3318</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>3311</v>
+        <v>3319</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>3312</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3313</v>
+        <v>3321</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>3314</v>
+        <v>3322</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>3315</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3316</v>
+        <v>3324</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>3317</v>
+        <v>3325</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>3318</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3319</v>
+        <v>3327</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>2725</v>
@@ -50741,69 +50793,69 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>3320</v>
+        <v>3328</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>3321</v>
+        <v>3329</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>3322</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>3323</v>
+        <v>3331</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>3324</v>
+        <v>3332</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>3325</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>3326</v>
+        <v>3334</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>3327</v>
+        <v>3335</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>3328</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>3329</v>
+        <v>3337</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>3330</v>
+        <v>3338</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>3331</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>3332</v>
+        <v>3340</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>3333</v>
+        <v>3341</v>
       </c>
       <c r="O11" s="17" t="s">
         <v>2716</v>
@@ -50811,125 +50863,125 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>3334</v>
+        <v>3342</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>3335</v>
+        <v>3343</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>3336</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>3337</v>
+        <v>3345</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>3338</v>
+        <v>3346</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>3339</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>3340</v>
+        <v>3348</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>3341</v>
+        <v>3349</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>3342</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>3343</v>
+        <v>3351</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>3344</v>
+        <v>3352</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>3345</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>3346</v>
+        <v>3354</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>3344</v>
+        <v>3352</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>3347</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>3348</v>
+        <v>3356</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>3349</v>
+        <v>3357</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>3350</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>3351</v>
+        <v>3359</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>3352</v>
+        <v>3360</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>3353</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>3354</v>
+        <v>3362</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>3355</v>
+        <v>3363</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>3356</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>3357</v>
+        <v>3365</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>3358</v>
+        <v>3366</v>
       </c>
       <c r="O20" s="17" t="s">
         <v>1607</v>
@@ -50937,259 +50989,259 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>3359</v>
+        <v>3367</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>3360</v>
+        <v>3368</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>3361</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>3362</v>
+        <v>3370</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>3363</v>
+        <v>3371</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>3364</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>3365</v>
+        <v>3373</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>1255</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>3366</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>3367</v>
+        <v>3375</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>3360</v>
+        <v>3368</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>3368</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>3369</v>
+        <v>3377</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>3370</v>
+        <v>3378</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>3371</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>3372</v>
+        <v>3380</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>3373</v>
+        <v>3381</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>3374</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>3375</v>
+        <v>3383</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>3376</v>
+        <v>3384</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>3377</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>3378</v>
+        <v>3386</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>3379</v>
+        <v>3387</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>3380</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>3381</v>
+        <v>3389</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>3382</v>
+        <v>3390</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>3383</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>3384</v>
+        <v>3392</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>3385</v>
+        <v>3393</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>3386</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>3387</v>
+        <v>3395</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>3388</v>
+        <v>3396</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>3389</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>3390</v>
+        <v>3398</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>3391</v>
+        <v>3399</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>3392</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>3393</v>
+        <v>3401</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3394</v>
+        <v>3402</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>3395</v>
+        <v>3403</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>3396</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>3397</v>
+        <v>3405</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3398</v>
+        <v>3406</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>3399</v>
+        <v>3407</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>3399</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>3400</v>
+        <v>3408</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3401</v>
+        <v>3409</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>3402</v>
+        <v>3410</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>3403</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3413</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>3414</v>
+      </c>
+      <c r="O36" s="17" t="s">
         <v>3404</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>3405</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>3406</v>
-      </c>
-      <c r="O36" s="17" t="s">
-        <v>3396</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3416</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>3417</v>
+      </c>
+      <c r="O37" s="17" t="s">
         <v>3407</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3408</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>3409</v>
-      </c>
-      <c r="O37" s="17" t="s">
-        <v>3399</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>3410</v>
+        <v>3418</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3307</v>
+        <v>3315</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>3349</v>
+        <v>3357</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>3350</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>3411</v>
+        <v>3419</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>2250</v>
@@ -51198,18 +51250,18 @@
         <v>2251</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>3412</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>3413</v>
+        <v>3421</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>2929</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>3414</v>
+        <v>3422</v>
       </c>
       <c r="O40" s="0" t="s">
         <v>2931</v>
@@ -51217,13 +51269,13 @@
     </row>
     <row r="41" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>3415</v>
+        <v>3423</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>2933</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>3416</v>
+        <v>3424</v>
       </c>
       <c r="O41" s="0" t="s">
         <v>2935</v>
@@ -51248,7 +51300,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="1" sqref="A40:O41 B20"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.86328125" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51309,240 +51361,240 @@
     </row>
     <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3417</v>
+        <v>3425</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3418</v>
+        <v>3426</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>3419</v>
+        <v>3427</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>3420</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3421</v>
+        <v>3429</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3422</v>
+        <v>3430</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>3423</v>
+        <v>3431</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>3424</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3425</v>
+        <v>3433</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3426</v>
+        <v>3434</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>3427</v>
+        <v>3435</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>3428</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3429</v>
+        <v>3437</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3430</v>
+        <v>3438</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>3431</v>
+        <v>3439</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>3432</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3433</v>
+        <v>3441</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3434</v>
+        <v>3442</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>3435</v>
+        <v>3443</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>3436</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>3437</v>
+        <v>3445</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3438</v>
+        <v>3446</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>3439</v>
+        <v>3447</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>3440</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>3441</v>
+        <v>3449</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3442</v>
+        <v>3450</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>3443</v>
+        <v>3451</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>3444</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>3445</v>
+        <v>3453</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3446</v>
+        <v>3454</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>3447</v>
+        <v>3455</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>3448</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>3449</v>
+        <v>3457</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3450</v>
+        <v>3458</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>3451</v>
+        <v>3459</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>3452</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>3453</v>
+        <v>3461</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3454</v>
+        <v>3462</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>3455</v>
+        <v>3463</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>3456</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>3457</v>
+        <v>3465</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3458</v>
+        <v>3466</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>3459</v>
+        <v>3467</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>3460</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>3461</v>
+        <v>3469</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3462</v>
+        <v>3470</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>3463</v>
+        <v>3471</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>3464</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>3465</v>
+        <v>3473</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3466</v>
+        <v>3474</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>3467</v>
+        <v>3475</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>3468</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>3469</v>
+        <v>3477</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3470</v>
+        <v>3478</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>3471</v>
+        <v>3479</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>3472</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>3473</v>
+        <v>3481</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3474</v>
+        <v>3482</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>3475</v>
+        <v>3483</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>3476</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>3477</v>
+        <v>3485</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3478</v>
+        <v>3486</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>3479</v>
+        <v>3487</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>3480</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>3481</v>
+        <v>3489</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3482</v>
+        <v>3490</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>3483</v>
+        <v>3491</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>3484</v>
+        <v>3492</v>
       </c>
     </row>
   </sheetData>
@@ -51564,7 +51616,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A40:O41 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.86328125" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51626,86 +51678,86 @@
     </row>
     <row r="2" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3485</v>
+        <v>3493</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3486</v>
+        <v>3494</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>3487</v>
+        <v>3495</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>3488</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3489</v>
+        <v>3497</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3490</v>
+        <v>3498</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>3491</v>
+        <v>3499</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>3492</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3493</v>
+        <v>3501</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3494</v>
+        <v>3502</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>3495</v>
+        <v>3503</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>3496</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>3497</v>
+        <v>3505</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3498</v>
+        <v>3506</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>3499</v>
+        <v>3507</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>3500</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>3501</v>
+        <v>3509</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3502</v>
+        <v>3510</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>3503</v>
+        <v>3511</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>3504</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>3505</v>
+        <v>3513</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3506</v>
+        <v>3514</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>3507</v>
+        <v>3515</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>3508</v>
+        <v>3516</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -5798,10 +5798,10 @@
     <t xml:space="preserve">impostorCanIgnoreComms</t>
   </si>
   <si>
-    <t xml:space="preserve">Impostor can ignore comms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">インポスターはコミュサボを無視することができる</t>
+    <t xml:space="preserve">Impostor can always use admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">インポスターは常にアドミンを使用できる</t>
   </si>
   <si>
     <t xml:space="preserve">disableVentAnimation</t>
@@ -37416,8 +37416,8 @@
   </sheetPr>
   <dimension ref="A1:Q212"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M117" activeCellId="0" sqref="M117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B119" activeCellId="0" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -9538,16 +9538,16 @@
     <t xml:space="preserve">Number of Tasks to activate investigation</t>
   </si>
   <si>
+    <t xml:space="preserve">調査に必要なタスク数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sherlockCooldown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigtaion cooldown</t>
+  </si>
+  <si>
     <t xml:space="preserve">調査クールダウン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sherlockCooldown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investigtaion cooldown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">調査に必要なタスク数</t>
   </si>
   <si>
     <t xml:space="preserve">sherlockInvestigateDistance</t>
@@ -25616,7 +25616,7 @@
   <dimension ref="A1:Q237"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A215" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A234" activeCellId="0" sqref="A234"/>
+      <selection pane="topLeft" activeCell="B238" activeCellId="0" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="17.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28617,7 +28617,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>789</v>
       </c>
